--- a/Cleaned Data XLS format/Industry_Unemployment_By_Gender.xlsx
+++ b/Cleaned Data XLS format/Industry_Unemployment_By_Gender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boston\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinsloboda/OnTheUpAndUp/Cleaned Data XLS format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D561C-0ADB-49F1-B120-9EC5C3E163BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C57CC8-E9D6-6340-B031-1CB51F095689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="825" windowWidth="27870" windowHeight="13830" xr2:uid="{27825396-5639-4343-8BD3-0B7CCFD55DCB}"/>
+    <workbookView xWindow="-36140" yWindow="3000" windowWidth="27880" windowHeight="13840" xr2:uid="{27825396-5639-4343-8BD3-0B7CCFD55DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>HOUSEHOLD DATA</t>
-  </si>
-  <si>
-    <t>NOT SEASONALLY ADJUSTED</t>
-  </si>
-  <si>
-    <t>A-30. Unemployed persons by occupation and sex [Numbers in thousands]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Unemployment rates</t>
   </si>
@@ -49,21 +40,6 @@
   </si>
   <si>
     <t>Women</t>
-  </si>
-  <si>
-    <t>Tables are not available online for 2000–2001. The tables that were originally published for 2000–2001 contained data using 1990 Census population controls.</t>
-  </si>
-  <si>
-    <t>The data for 2000–2001 were later revised to incorporate Census 2000-based population controls, but the online tables were not re-issued with revised data.</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>https://www.bls.gov/cps/cpsaat25.htm</t>
-  </si>
-  <si>
-    <t>https://www.bls.gov/cps/tables.htm</t>
   </si>
 </sst>
 </file>
@@ -107,20 +83,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,291 +406,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B20F42-5538-4BD4-9667-0EF8772C6CB7}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <v>2.7</v>
+      </c>
+      <c r="C4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>1.8</v>
+      </c>
+      <c r="C5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+      <c r="C6">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B10">
         <v>2.7</v>
       </c>
       <c r="C10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2013</v>
+      </c>
+      <c r="B11">
+        <v>3.4</v>
+      </c>
+      <c r="C11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>3.3</v>
+      </c>
+      <c r="C12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>3.8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C14">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16">
+        <v>2.4</v>
+      </c>
+      <c r="C16">
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>1.8</v>
-      </c>
-      <c r="C11">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2007</v>
+      </c>
+      <c r="B17">
         <v>2.1</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2016</v>
-      </c>
-      <c r="B14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C14">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2015</v>
-      </c>
-      <c r="B15">
-        <v>2.5</v>
-      </c>
-      <c r="C15">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2014</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2005</v>
+      </c>
+      <c r="B19">
         <v>2.7</v>
       </c>
-      <c r="C16">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2013</v>
-      </c>
-      <c r="B17">
-        <v>3.4</v>
-      </c>
-      <c r="C17">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2012</v>
-      </c>
-      <c r="B18">
+      <c r="C19">
         <v>3.3</v>
       </c>
-      <c r="C18">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2011</v>
-      </c>
-      <c r="B19">
-        <v>3.8</v>
-      </c>
-      <c r="C19">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2003</v>
+      </c>
+      <c r="B21">
+        <v>5.8</v>
+      </c>
+      <c r="C21">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2002</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2010</v>
-      </c>
-      <c r="B20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C20">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2009</v>
-      </c>
-      <c r="B21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C21">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2008</v>
-      </c>
-      <c r="B22">
-        <v>2.4</v>
-      </c>
       <c r="C22">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2007</v>
-      </c>
-      <c r="B23">
-        <v>2.1</v>
-      </c>
-      <c r="C23">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2006</v>
-      </c>
-      <c r="B24">
-        <v>2.5</v>
-      </c>
-      <c r="C24">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2005</v>
-      </c>
-      <c r="B25">
-        <v>2.7</v>
-      </c>
-      <c r="C25">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2004</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2003</v>
-      </c>
-      <c r="B27">
-        <v>5.8</v>
-      </c>
-      <c r="C27">
         <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2002</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Cleaned Data XLS format/Industry_Unemployment_By_Gender.xlsx
+++ b/Cleaned Data XLS format/Industry_Unemployment_By_Gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinsloboda/OnTheUpAndUp/Cleaned Data XLS format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C57CC8-E9D6-6340-B031-1CB51F095689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E4FA1-2490-264D-8303-49E4286F92DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="3000" windowWidth="27880" windowHeight="13840" xr2:uid="{27825396-5639-4343-8BD3-0B7CCFD55DCB}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Unemployment rates</t>
-  </si>
-  <si>
-    <t>Occupation: Computer and mathematical occupations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
@@ -83,14 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B20F42-5538-4BD4-9667-0EF8772C6CB7}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -417,242 +407,227 @@
     <col min="1" max="1" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>2.7</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>1.8</v>
+      </c>
+      <c r="C3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B4">
+        <v>2.1</v>
+      </c>
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8">
         <v>2.7</v>
       </c>
-      <c r="C4">
+      <c r="C8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9">
+        <v>3.4</v>
+      </c>
+      <c r="C9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>3.3</v>
+      </c>
+      <c r="C10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11">
+        <v>3.8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C12">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C13">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14">
+        <v>2.4</v>
+      </c>
+      <c r="C14">
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
-        <v>1.8</v>
-      </c>
-      <c r="C5">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2018</v>
-      </c>
-      <c r="B6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15">
         <v>2.1</v>
       </c>
-      <c r="C6">
+      <c r="C15">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C8">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2015</v>
-      </c>
-      <c r="B9">
-        <v>2.5</v>
-      </c>
-      <c r="C9">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10">
-        <v>2.7</v>
-      </c>
-      <c r="C10">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2013</v>
-      </c>
-      <c r="B11">
-        <v>3.4</v>
-      </c>
-      <c r="C11">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2012</v>
-      </c>
-      <c r="B12">
-        <v>3.3</v>
-      </c>
-      <c r="C12">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2011</v>
-      </c>
-      <c r="B13">
-        <v>3.8</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2010</v>
-      </c>
-      <c r="B14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C14">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2009</v>
-      </c>
-      <c r="B15">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C15">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16">
-        <v>2.4</v>
-      </c>
-      <c r="C16">
-        <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B17">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="C17">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B18">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2.2999999999999998</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B19">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="C19">
-        <v>3.3</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2003</v>
-      </c>
-      <c r="B21">
-        <v>5.8</v>
-      </c>
-      <c r="C21">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2002</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
